--- a/_example/read/read.xlsx
+++ b/_example/read/read.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itcomusic/projects/excelstruct/_example/read/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B4C6B7-5F65-3642-8C12-8EC05BF57DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA677B3-D031-8B47-808F-810F1073C64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22960" yWindow="9840" windowWidth="28240" windowHeight="17240" xr2:uid="{DBD7FB39-7F63-F14C-910B-DFA48A89898A}"/>
   </bookViews>
@@ -35,15 +35,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>gopher</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>unmarshaler</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>value2</t>
   </si>
 </sst>
 </file>
@@ -396,28 +408,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F500D13-381D-F047-A710-7B52355E1FCC}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/_example/read/read.xlsx
+++ b/_example/read/read.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itcomusic/projects/excelstruct/_example/read/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA677B3-D031-8B47-808F-810F1073C64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DE68BB-A94D-E440-A0DC-9FF4DB394A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22960" yWindow="9840" windowWidth="28240" windowHeight="17240" xr2:uid="{DBD7FB39-7F63-F14C-910B-DFA48A89898A}"/>
   </bookViews>
@@ -35,16 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>slice</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>unmarshaler</t>
   </si>
@@ -56,6 +47,18 @@
   </si>
   <si>
     <t>value2</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -411,26 +414,26 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -438,16 +441,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
